--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>-20.60095519089991</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.172234423301225</v>
+        <v>-8.95875133316404</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.946831329757637</v>
+        <v>-2.909007666847891</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.769269976376943</v>
+        <v>-5.499660183957278</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.99341143202596</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.452030027331752</v>
+        <v>-9.234422861799423</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.957030233671342</v>
+        <v>-2.944003392343824</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.715251134851981</v>
+        <v>-5.430113871262029</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.30246733831837</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.2774735368969</v>
+        <v>-10.05843931035482</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.805447551369837</v>
+        <v>-2.81373497906865</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.591659796026087</v>
+        <v>-5.297855427954913</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.57128114002162</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.02933830449154</v>
+        <v>-10.82627668741637</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.73985511413279</v>
+        <v>-2.736045254005848</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.818837434935718</v>
+        <v>-5.521249391343284</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.80849154913738</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.84407231033216</v>
+        <v>-11.62032485476706</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.577602205015279</v>
+        <v>-2.583271172145746</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.355854329543759</v>
+        <v>-5.066828652009814</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.04832523133096</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.53196808624213</v>
+        <v>-12.30578546234847</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.544688155671179</v>
+        <v>-2.565334717252581</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.455800969437496</v>
+        <v>-5.169786521557148</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.32312375141425</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.06697194956642</v>
+        <v>-12.82951685292604</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.430038859686184</v>
+        <v>-2.441887393757946</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.987751142845789</v>
+        <v>-4.712681860141124</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.66094361731614</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.04771635544012</v>
+        <v>-13.79510037210902</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.198396745507525</v>
+        <v>-2.189245225821158</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.843343042501551</v>
+        <v>-4.60274579317915</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.0819333175007</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.80975384234279</v>
+        <v>-14.55616902860139</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.179988967712058</v>
+        <v>-2.173652293136663</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.448662481034876</v>
+        <v>-4.198730419786326</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.60158135046037</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.48288150064729</v>
+        <v>-15.22526425763065</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.992533375624224</v>
+        <v>-2.007052739475698</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.220280350263807</v>
+        <v>-3.981280361888097</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.22019013729911</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.1384392885382</v>
+        <v>-15.87593861656159</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.038068404907747</v>
+        <v>-2.032163776326129</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.698552082021023</v>
+        <v>-3.469986659010169</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.93526220348143</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.11166871258075</v>
+        <v>-16.84169233568151</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.842901446446137</v>
+        <v>-1.842063539064266</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.05994882631015</v>
+        <v>-2.831553603236239</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.74983974713856</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.71942650279651</v>
+        <v>-17.45900750697174</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.581382697182659</v>
+        <v>-1.585388941852227</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.721041474949229</v>
+        <v>-2.469944198747765</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.64917289859407</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.62266447584719</v>
+        <v>-18.35620992841239</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.43879442693342</v>
+        <v>-1.439449042075506</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.143841119566052</v>
+        <v>-1.902209578319156</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.6134533814571</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.51978834347079</v>
+        <v>-19.25078079698184</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.275939271885189</v>
+        <v>-1.280534670182635</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.741828868508012</v>
+        <v>-1.494554544736331</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.62006911296388</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.31739761719442</v>
+        <v>-20.04455402597285</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.060361413293328</v>
+        <v>-1.051799047234839</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.232224072696666</v>
+        <v>-0.983653610943655</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.64149086400834</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.27674920022475</v>
+        <v>-21.00496608553335</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9769503518886913</v>
+        <v>-0.9686629241898786</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.8682973306052066</v>
+        <v>-0.6165061623531309</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.65476310760858</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.11342590562809</v>
+        <v>-21.84084416046336</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8462498926197399</v>
+        <v>-0.821872024728446</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4964497452945029</v>
+        <v>-0.2439646849918156</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.64985779779839</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.76656161749328</v>
+        <v>-22.48111013863512</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6065952891019443</v>
+        <v>-0.573916901208996</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1408235232046977</v>
+        <v>0.1270057160284925</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.61727130680926</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.38648215704901</v>
+        <v>-23.10505001516326</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3182111344072442</v>
+        <v>-0.2812777480907349</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2070782402084891</v>
+        <v>0.4681256665696652</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.54954263879826</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.03917273061758</v>
+        <v>-23.74475302431284</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.117911993231677</v>
+        <v>-0.06232207536570816</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2893109943573706</v>
+        <v>0.5018121617814264</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.4433031157661</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.49500743865795</v>
+        <v>-24.21976795601635</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03550903914585318</v>
+        <v>0.03545124225630211</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5296071207144109</v>
+        <v>0.7591937433469191</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.29623607673533</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.88530207867265</v>
+        <v>-24.5927283870686</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0664068738523267</v>
+        <v>0.009449928812634142</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5154936182510301</v>
+        <v>0.7140907600571729</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.10696030406361</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.16031899216595</v>
+        <v>-24.87573160529535</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2309978775003227</v>
+        <v>0.2999681288705356</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4944281029786929</v>
+        <v>0.6909304763301595</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.88249099312274</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.162217376078</v>
+        <v>-24.88119109558035</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2268868944080207</v>
+        <v>0.3054145268526937</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3483703724763969</v>
+        <v>0.5474912063962086</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.63218088725692</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.12652775853145</v>
+        <v>-24.83755445020887</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03090821317022317</v>
+        <v>0.1132849826503636</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3463672501416128</v>
+        <v>0.5329980271504179</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.36097735336157</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.20894380492012</v>
+        <v>-24.92607150972178</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1944441679662235</v>
+        <v>0.2599842359919042</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05063831355270435</v>
+        <v>0.2325034923271212</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.0736304500631</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.2637220000099</v>
+        <v>-24.97139706215984</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1514490454339951</v>
+        <v>0.2296624626104666</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03811440741135667</v>
+        <v>0.1286946230950752</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.7740724669846</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.04540785012412</v>
+        <v>-24.75966834060345</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02391692345274145</v>
+        <v>0.08346071677691161</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2170992795605937</v>
+        <v>-0.05906209195811837</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.46241307460461</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.58383871343906</v>
+        <v>-24.29240405218224</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02398238496695008</v>
+        <v>0.08933916075284661</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7190319859066877</v>
+        <v>-0.5544879237918745</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.14261799045549</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.63340617199784</v>
+        <v>-24.33995529610339</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08141831753360233</v>
+        <v>0.1415381721828085</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.845006123849776</v>
+        <v>-0.6721091725219415</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.82696893515175</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.23765204169814</v>
+        <v>-23.94421425810654</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02127227827871278</v>
+        <v>0.07357602813140843</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.347226860858388</v>
+        <v>-1.17172454126505</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.52110426955443</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.63717357186238</v>
+        <v>-23.35919779792685</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.07771862350757802</v>
+        <v>-0.05131144867581654</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.413500097843205</v>
+        <v>-1.248353789797673</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.23014634220115</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.28203176497772</v>
+        <v>-23.00164700731931</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2702671214008433</v>
+        <v>-0.2479709296613838</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.50713624776723</v>
+        <v>-1.31750733340767</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.958367218268775</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.53404231902422</v>
+        <v>-22.26727355632121</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3823372337260185</v>
+        <v>-0.3617561336588251</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.692942209697007</v>
+        <v>-1.511207953951007</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.705694331189177</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.73778155249328</v>
+        <v>-21.4686038060674</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3220995483512368</v>
+        <v>-0.3014529867698348</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.833239326948943</v>
+        <v>-1.637313014922512</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.473309369728106</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.35273692591812</v>
+        <v>-21.09373189880026</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3942512293119892</v>
+        <v>-0.3788023119587524</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.094758076212421</v>
+        <v>-1.893712673774876</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.269237453859491</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.70208875159286</v>
+        <v>-20.43967972573614</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2784498106769221</v>
+        <v>-0.2290263674494062</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.265743551325364</v>
+        <v>-2.056266705857747</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.096998977383901</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.34326800760968</v>
+        <v>-20.09819319071541</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5151848306610128</v>
+        <v>-0.4916710547572729</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.485052716227117</v>
+        <v>-2.274489209623637</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.957428486686686</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.77955272415348</v>
+        <v>-19.5517335624046</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2624117396958077</v>
+        <v>-0.2132370502222846</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.359824839546007</v>
+        <v>-2.128889709720801</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.850079510783265</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.22197773073005</v>
+        <v>-18.98418223421578</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.02473407390711262</v>
+        <v>0.02220183178047533</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.414563757727264</v>
+        <v>-2.164828081021339</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.771163402965614</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.32312567913134</v>
+        <v>-18.09016124236567</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.007871187846969446</v>
+        <v>0.03281968938511517</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.344454476009821</v>
+        <v>-2.073456899488933</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.715248281349332</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.993186555217</v>
+        <v>-17.75036361441151</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02724236837453987</v>
+        <v>0.06665019992813534</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.544819078699597</v>
+        <v>-2.263936813533205</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.682311433007955</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.44697568066019</v>
+        <v>-17.20869576894078</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00336200799123152</v>
+        <v>0.0390123486292516</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.601142165524702</v>
+        <v>-2.320168254238419</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.672141975319052</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.00774201262313</v>
+        <v>-16.78564418721609</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06543261576385481</v>
+        <v>0.08361782441101231</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.497909357617692</v>
+        <v>-2.239087622739609</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.680980194723048</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.35713311520639</v>
+        <v>-16.15285391396694</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0488053911548627</v>
+        <v>0.09606860441349381</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.839500631061167</v>
+        <v>-2.56547873258384</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.704712248561348</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.69933654352955</v>
+        <v>-15.49229486639049</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06526241582691238</v>
+        <v>0.08775499210899776</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.749504141327142</v>
+        <v>-2.486623792568124</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.738390302292583</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.11810375887112</v>
+        <v>-14.93389505788803</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1686523313680231</v>
+        <v>0.2107571773070142</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.993767235445225</v>
+        <v>-2.707936079804662</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.774163042710718</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.43353342788295</v>
+        <v>-14.25374992526036</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2931994083013632</v>
+        <v>0.351996940363555</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.953220373544399</v>
+        <v>-2.668960294244843</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.809674443848627</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.62444220456712</v>
+        <v>-13.45590499008558</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3013559129717586</v>
+        <v>0.3463934347472962</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.061022395143172</v>
+        <v>-2.750054018046495</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.846650289025202</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.02251048911592</v>
+        <v>-12.85134172176319</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3768068542486259</v>
+        <v>0.4285869119876525</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.036029189018317</v>
+        <v>-2.741452375079481</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.882988546666947</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.38498080223807</v>
+        <v>-12.21967738655843</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4348974019573645</v>
+        <v>0.4817809384335855</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.078775557796553</v>
+        <v>-2.778686884361349</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.916928836791461</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.00628594254114</v>
+        <v>-11.83942454282334</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3318347939872969</v>
+        <v>0.3814415294545969</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.218378782997878</v>
+        <v>-2.895404764195337</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.947015337687802</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.49474348590922</v>
+        <v>-11.34787403263074</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1095405840376299</v>
+        <v>0.1357644666296073</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.683312641513254</v>
+        <v>-3.376730185868555</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.968271634586209</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.07890576305032</v>
+        <v>-10.9364484158295</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1542377059392827</v>
+        <v>0.2072222555397481</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.774395792383142</v>
+        <v>-3.45816430954409</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.979911000632741</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.31503535374981</v>
+        <v>-10.17136042236471</v>
       </c>
       <c r="F57" t="n">
-        <v>0.107053046497702</v>
+        <v>0.1610064265084551</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.157267096686579</v>
+        <v>-3.825207019711881</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.98649459819406</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.03056579760479</v>
+        <v>-9.873602178835332</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.06310761353621173</v>
+        <v>-0.01003141781585425</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.180597580350535</v>
+        <v>-3.846914057823463</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.989764310801897</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.444253199443766</v>
+        <v>-9.299910560613737</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003152531145763903</v>
+        <v>0.06252612453299163</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.469034104256602</v>
+        <v>-4.13315107485212</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.990701435922206</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.104377017672558</v>
+        <v>-8.962967054679075</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1137879178365333</v>
+        <v>-0.06423355158060017</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.377636738118512</v>
+        <v>-4.05237156631867</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.989900725772898</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.562656802990459</v>
+        <v>-8.426261191985356</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1390167854125395</v>
+        <v>-0.0891089269798797</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.765758055861482</v>
+        <v>-4.450338295798617</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.984995941052686</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.076461044660119</v>
+        <v>-7.940484387345952</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1005908765720735</v>
+        <v>-0.04987129536322667</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.764893963873928</v>
+        <v>-4.42889310374387</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.973636166133367</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.62060015201406</v>
+        <v>-7.472604760691188</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1135391640825405</v>
+        <v>-0.06661635069779431</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.749274846583749</v>
+        <v>-4.423459798064553</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.958887487239227</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.276429694910765</v>
+        <v>-7.139680591728935</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2745613967329295</v>
+        <v>-0.2309902128756651</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.949037203342805</v>
+        <v>-4.635450365677782</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.943496635086843</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.907017277928622</v>
+        <v>-6.76000380931888</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2209353242932195</v>
+        <v>-0.1810168929287967</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.211249844656894</v>
+        <v>-4.901328851787556</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.927990771748822</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.659507292705791</v>
+        <v>-6.510935840057883</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3308975758608767</v>
+        <v>-0.2880857455684325</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.183494162632435</v>
+        <v>-4.878260214180433</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.912861134644707</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.50219018175961</v>
+        <v>-6.35944480387627</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.410655884772672</v>
+        <v>-0.3590591192734295</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.276554251231424</v>
+        <v>-4.973755471107983</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.897428461514862</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.22898000605847</v>
+        <v>-6.08463736722844</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.362188179652602</v>
+        <v>-0.3199916875937189</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.271160222460633</v>
+        <v>-4.980209976408955</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.878603992142853</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.097847500795742</v>
+        <v>-5.949210586633626</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6358304013475186</v>
+        <v>-0.5758676543324132</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.323948387518473</v>
+        <v>-5.049402796927477</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.858343663383591</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.904526557034815</v>
+        <v>-5.751372798392303</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5686930723751473</v>
+        <v>-0.5262871034707965</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.164588877328983</v>
+        <v>-4.891012117148275</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.841538475497199</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.800220180294783</v>
+        <v>-5.63719482530961</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6396533537773026</v>
+        <v>-0.6002847991322323</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.103644207600748</v>
+        <v>-4.846917241177342</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.828947553921816</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.810484545722697</v>
+        <v>-5.646856944806804</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7621449391644917</v>
+        <v>-0.7124858344858247</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.960676260569099</v>
+        <v>-4.721846472130332</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.820843190694269</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.859227189202443</v>
+        <v>-5.693688112071658</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7999162328628714</v>
+        <v>-0.7452034992872981</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.768127762675834</v>
+        <v>-4.522751822816204</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.816808442165076</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.086090612843872</v>
+        <v>-5.930698070415425</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6840100758050706</v>
+        <v>-0.6344033403377705</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.628053214572207</v>
+        <v>-4.384863689287145</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.811735621037638</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.286258830991022</v>
+        <v>-6.140606961876819</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.019330136187359</v>
+        <v>-0.9783250436870725</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.458913754159948</v>
+        <v>-4.21476849076744</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.804329090243595</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.766707068373844</v>
+        <v>-6.632393133520575</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9494957928295917</v>
+        <v>-0.9006222263214283</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.272832853870495</v>
+        <v>-4.043861569471548</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.797611383279275</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.214712579314868</v>
+        <v>-7.086355642254586</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.007874371200848</v>
+        <v>-0.9598125274688719</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.193113821867225</v>
+        <v>-3.963448645417667</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.790566602625811</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.806445390852361</v>
+        <v>-7.668439426597726</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.06705158004545</v>
+        <v>-1.019709812969769</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.823125343560046</v>
+        <v>-3.590880983450668</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.781026931871136</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.227205819579753</v>
+        <v>-8.089736639741629</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.047609510325487</v>
+        <v>-0.9866910252029355</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.654483390655773</v>
+        <v>-3.406973405432942</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.766309502662217</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.692061124278078</v>
+        <v>-8.560077619330638</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.218568800832746</v>
+        <v>-1.187854258366057</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.288213126355644</v>
+        <v>-3.037547896147957</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.741164394145995</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.590114545403438</v>
+        <v>-9.472283819827902</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.168857326942712</v>
+        <v>-1.112848455385808</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.28453418925712</v>
+        <v>-3.030543514127634</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.701057231906493</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.37028487174189</v>
+        <v>-10.26334694213067</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.253027741912169</v>
+        <v>-1.201614268652711</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.087311739249358</v>
+        <v>-2.837615339451959</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.646909054910031</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.1807507868561</v>
+        <v>-11.08282036159999</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.374602866100437</v>
+        <v>-1.312375150693713</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.738820822208293</v>
+        <v>-2.480994102346182</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.578986272553641</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.37420583699933</v>
+        <v>-12.2844581010193</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.448679115578923</v>
+        <v>-1.393599797523782</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.593168953094091</v>
+        <v>-2.343433276388166</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.495750432203081</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.25615572562936</v>
+        <v>-13.16301708321332</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.5279922861941</v>
+        <v>-1.478437919938167</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.26131835296486</v>
+        <v>-2.008165585217245</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.395488718554818</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.41204895891967</v>
+        <v>-14.3325786806704</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.710328787870819</v>
+        <v>-1.662332405653051</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.004041509822101</v>
+        <v>-1.759346369710241</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.275696365331051</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.48043324001589</v>
+        <v>-15.40863505123186</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.754986632863946</v>
+        <v>-1.713248371404524</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.589080971253594</v>
+        <v>-1.348182598965834</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.132652488663354</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.87054777114468</v>
+        <v>-16.79171901573465</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.728762750271969</v>
+        <v>-1.696634239098373</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.281739162044074</v>
+        <v>-1.029947993791998</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.966815997760621</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.51800460693044</v>
+        <v>-18.45669335272263</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.962944771201923</v>
+        <v>-1.937493334477608</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.089858371595737</v>
+        <v>-0.83009399091305</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.781850960935768</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.09861214440634</v>
+        <v>-20.04230214988408</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.176728984304468</v>
+        <v>-2.1469309030367</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7981094950707132</v>
+        <v>-0.5322310089609402</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.578465579616058</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.87098264160501</v>
+        <v>-21.84657858910803</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.363451407433165</v>
+        <v>-2.337803586166224</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.9395194580641965</v>
+        <v>-0.6759844941630925</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.357510072595351</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.54628680553512</v>
+        <v>-23.5383135931045</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.456773342088989</v>
+        <v>-2.43251330492327</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.743540776826399</v>
+        <v>-0.4887252866178845</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.120034227891013</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.63355337068298</v>
+        <v>-25.61708325370809</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.60772759385409</v>
+        <v>-2.59353553757366</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.7313125659722268</v>
+        <v>-0.4848237803710501</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.865042256210764</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.85468873238749</v>
+        <v>-27.84257835225889</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.472693582344528</v>
+        <v>-2.468582599252226</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.8492873068790204</v>
+        <v>-0.6093577650015485</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.59327366157164</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.13244830388247</v>
+        <v>-30.12664841372358</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.94526025341663</v>
+        <v>-2.944919853542745</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.201260776475984</v>
+        <v>-0.9654684022964976</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.3105475811116</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.33678624104104</v>
+        <v>-32.31831300173137</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.996346419105045</v>
+        <v>-3.012646336142994</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.448535100247664</v>
+        <v>-1.210700326824869</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.020423249270255</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.56064480173663</v>
+        <v>-34.53939599422451</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.326717589013161</v>
+        <v>-3.362813067947799</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.640847936689779</v>
+        <v>-1.41148388320558</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.723526082165716</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.07709014633912</v>
+        <v>-37.05737313825948</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.583811139916135</v>
+        <v>-3.627591800618867</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.061110857909185</v>
+        <v>-1.825056637672864</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.425124956407021</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.57973620374642</v>
+        <v>-39.57506225163193</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.519645763688836</v>
+        <v>-3.562640886221065</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.519996072511684</v>
+        <v>-2.283941852275363</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.122780925028947</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.14354950003027</v>
+        <v>-42.14019787050279</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.695449206247534</v>
+        <v>-3.737279113826848</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.841621584121527</v>
+        <v>-2.62342526496132</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.825121379499564</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.43531783556589</v>
+        <v>-44.4287324072365</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.932629364528243</v>
+        <v>-3.990183127820471</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.40620095956528</v>
+        <v>-3.197116883182915</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.527350061887142</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.76802580208759</v>
+        <v>-46.76851021729274</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.078975125693058</v>
+        <v>-4.139173534159314</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.715991029406202</v>
+        <v>-3.515613334413584</v>
       </c>
     </row>
   </sheetData>
